--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\tabl-todocx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3F64BD-98BB-4CBD-96F1-2AA5E06E6EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B779CC1-BEB0-4CAA-89E5-960ABBB00311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B2319DB0-4B47-40B6-AF53-D929A68305A6}"/>
+    <workbookView xWindow="4620" yWindow="4320" windowWidth="21600" windowHeight="11385" xr2:uid="{B2319DB0-4B47-40B6-AF53-D929A68305A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ФИО</t>
   </si>
@@ -42,23 +42,38 @@
     <t>Конец срока</t>
   </si>
   <si>
-    <t>Область аттестации</t>
-  </si>
-  <si>
     <t>Категория (число от 1 до 8)</t>
   </si>
   <si>
     <t>Номер аттестации</t>
+  </si>
+  <si>
+    <t>почта</t>
+  </si>
+  <si>
+    <t>компания</t>
+  </si>
+  <si>
+    <t>подпись</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -82,13 +97,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393F02A2-ABA9-48C6-880E-83C853752E96}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,9 +434,10 @@
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,6 +461,44 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\tabl-todocx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fd\tabl-to-docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B779CC1-BEB0-4CAA-89E5-960ABBB00311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBE842D-872D-45C9-92D6-D26CDA1B94EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="4320" windowWidth="21600" windowHeight="11385" xr2:uid="{B2319DB0-4B47-40B6-AF53-D929A68305A6}"/>
+    <workbookView xWindow="4350" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{B2319DB0-4B47-40B6-AF53-D929A68305A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ФИО</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>подпись</t>
+  </si>
+  <si>
+    <t>Дата для решения</t>
   </si>
 </sst>
 </file>
@@ -101,9 +104,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -419,38 +423,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393F02A2-ABA9-48C6-880E-83C853752E96}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -468,38 +473,12 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fd\tabl-to-docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBE842D-872D-45C9-92D6-D26CDA1B94EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AC8CE8-465A-4592-93A6-ED518BFD6405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{B2319DB0-4B47-40B6-AF53-D929A68305A6}"/>
+    <workbookView xWindow="5790" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{B2319DB0-4B47-40B6-AF53-D929A68305A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ФИО</t>
   </si>
@@ -45,16 +45,10 @@
     <t>Категория (число от 1 до 8)</t>
   </si>
   <si>
-    <t>Номер аттестации</t>
-  </si>
-  <si>
     <t>почта</t>
   </si>
   <si>
     <t>компания</t>
-  </si>
-  <si>
-    <t>подпись</t>
   </si>
   <si>
     <t>Дата для решения</t>
@@ -425,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393F02A2-ABA9-48C6-880E-83C853752E96}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +436,7 @@
     <col min="11" max="11" width="16.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,17 +461,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H2" s="1"/>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fd\tabl-to-docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\tabl-to-docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AC8CE8-465A-4592-93A6-ED518BFD6405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234A8A39-4DB9-4E9A-BD89-3EA004319B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{B2319DB0-4B47-40B6-AF53-D929A68305A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B2319DB0-4B47-40B6-AF53-D929A68305A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ФИО</t>
   </si>
@@ -52,6 +52,27 @@
   </si>
   <si>
     <t>Дата для решения</t>
+  </si>
+  <si>
+    <t>Иванов Иван "Иванович"</t>
+  </si>
+  <si>
+    <t>01.02.2010</t>
+  </si>
+  <si>
+    <t>98563</t>
+  </si>
+  <si>
+    <t>13.12.2024</t>
+  </si>
+  <si>
+    <t>ООО "ПТБ "Рубеж"</t>
+  </si>
+  <si>
+    <t>«Image:RegDate»</t>
+  </si>
+  <si>
+    <t>12.12.2029</t>
   </si>
 </sst>
 </file>
@@ -69,12 +90,11 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,17 +114,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,56 +438,84 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="1"/>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\tabl-to-docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fd\tabl-to-docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234A8A39-4DB9-4E9A-BD89-3EA004319B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF10266-8DCF-4EF0-9404-95771AAFBF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B2319DB0-4B47-40B6-AF53-D929A68305A6}"/>
+    <workbookView xWindow="5790" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{B2319DB0-4B47-40B6-AF53-D929A68305A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>ООО "ПТБ "Рубеж"</t>
   </si>
   <si>
-    <t>«Image:RegDate»</t>
-  </si>
-  <si>
     <t>12.12.2029</t>
+  </si>
+  <si>
+    <t>gimonchik@gimonchik.ru</t>
   </si>
 </sst>
 </file>
@@ -90,11 +90,12 @@
     </font>
     <font>
       <u/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,15 +115,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,7 +441,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +488,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -502,7 +505,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -511,11 +514,14 @@
         <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{849260A0-3719-466F-BDAB-71F6299D0B8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>